--- a/その他/２重レイヤーのしくみ（fixed、zindex等）.xlsx
+++ b/その他/２重レイヤーのしくみ（fixed、zindex等）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\50_knowledge\その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA20F82-2604-466A-9142-BC2FD0C21408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC72181-2166-4A23-A9D9-8BE3B9EB6864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{F9165D19-584C-4D50-86DD-3A0E1753E0B3}"/>
+    <workbookView xWindow="38670" yWindow="195" windowWidth="23475" windowHeight="15585" activeTab="1" xr2:uid="{F9165D19-584C-4D50-86DD-3A0E1753E0B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
   <si>
     <t>ポイント</t>
     <phoneticPr fontId="1"/>
@@ -402,9 +402,6 @@
     <t>  background: #fff;</t>
   </si>
   <si>
-    <t>body::before {</t>
-  </si>
-  <si>
     <t>  content: "";</t>
   </si>
   <si>
@@ -417,12 +414,6 @@
     <t>  bottom: 0;</t>
   </si>
   <si>
-    <t>  left: 300px;</t>
-  </si>
-  <si>
-    <t>  width: calc(100% - 300px);</t>
-  </si>
-  <si>
     <t>  background: url("../img/chrome_qJcZNA8Xrm.png") center / cover no-repeat;</t>
   </si>
   <si>
@@ -438,18 +429,6 @@
     <t>  position: relative;</t>
   </si>
   <si>
-    <t>  margin-left: 300px;</t>
-  </si>
-  <si>
-    <t>#product_area {</t>
-  </si>
-  <si>
-    <t>  background: #1a9916;</t>
-  </si>
-  <si>
-    <t>  margin-top: 320px;</t>
-  </si>
-  <si>
     <t>  padding: 8.5rem 12rem;</t>
   </si>
   <si>
@@ -462,166 +441,387 @@
     <t>  z-index: 50;</t>
   </si>
   <si>
+    <t>※これらは同じ物理空間にいるので</t>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#work_list（セクション部分）・・・margin-left: 160px;</t>
+    <rPh sb="16" eb="18">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>が指定できない。</t>
+    <rPh sb="1" eb="3">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fixが指定できない時は</t>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これとおぼえておく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここにindexがないが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親の継承しているだけ</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★ my_wrapがあることによって、初期表示が背景画像で一杯にうつる。</t>
+    <rPh sb="19" eb="21">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ないとしたのコンテンツエリアが表示される。</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★スクロールのしくみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっして、スクロールを下に回したときに、下のコンテンツが上に動いていない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示されている位置が下になっているだけ。</t>
+  </si>
+  <si>
+    <t>https://code-jump.com/demo/html/corporate3/?utm_source=chatgpt.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまり透明なクッションをイメージする</t>
+    <rPh sb="3" eb="5">
+      <t>トウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページは「長い紙」みたいなもの</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">/* </t>
+      <t>.mv_wrap</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>メインを背景より手前に</t>
+      <t xml:space="preserve"> は </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最初の1画面分の空白</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> */</t>
+      <t>を作る（背景だけ見せたい）</t>
     </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">/* </t>
+      <t>#work_list</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>最初の背景だけ見えるエリア</t>
+      <t xml:space="preserve"> は </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.mv_wrap</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Consolas"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> */</t>
+      <t>下に置いてある</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>  height: calc(100vh - 160px);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>  width: calc(100% - 300px);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>  height: 160px;</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>スクロールすると「紙が動く」じゃなくて、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示してる窓が下へ移動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">して、下にある </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>#work_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> が見える</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#product_area</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>fixed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> なので、紙（ページの高さ）にはあまり影響せず、画面にずっと貼り付く</t>
+    </r>
+  </si>
+  <si>
+    <t>/* ┌─────────────────────────────────────────┐</t>
+  </si>
+  <si>
+    <t>   │ 右メインエリア　　　　                    │</t>
+  </si>
+  <si>
+    <t>   └─────────────────────────────────────────┘ */</t>
+  </si>
+  <si>
+    <t>/* メインを背景より手前に */</t>
+  </si>
+  <si>
+    <t>/* 最初の背景だけ見えるエリア */</t>
+  </si>
+  <si>
+    <t>  left: 30rem;</t>
+  </si>
+  <si>
+    <t>  width: calc(100% - 30rem);</t>
+  </si>
+  <si>
+    <t>  z-index: 1;</t>
+  </si>
+  <si>
+    <t>  padding-bottom: 16rem;</t>
+  </si>
+  <si>
+    <t>.mv_wrap {</t>
+  </si>
+  <si>
+    <t>  border: 0.5rem solid red;</t>
+  </si>
+  <si>
+    <t>  background: white;</t>
   </si>
   <si>
     <t>  z-index: 2;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>  position: fixed;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>  margin-left: 160px;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>★つまり➀（画像エリア）と➂（白帯エリア）は同じ空間にいる。</t>
+  </si>
+  <si>
+    <t>  margin-left: 30rem;</t>
+  </si>
+  <si>
+    <t>  position: relative;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> position: relative;　これがないとz-index: 1;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  width: calc(100% - 30rem); </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★つまり➀（画像エリア）と➁（見える窓部分）➂（白帯エリア）は同じ空間にいる。</t>
     <rPh sb="6" eb="8">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="24" eb="25">
       <t>シロ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="25" eb="26">
       <t>オビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>.mv_wrap {</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#work_list {</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※これらは同じ物理空間にいるので</t>
-    <rPh sb="5" eb="6">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>クウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>積み重なる。</t>
-    <rPh sb="0" eb="1">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その上の空間に、➁（見える窓部分）と➃（セクション）がある。</t>
+    <t>その上の空間にと➃（セクション）がある。</t>
     <rPh sb="2" eb="3">
       <t>ウエ</t>
     </rPh>
     <rPh sb="4" eb="6">
       <t>クウカン</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・配置の仕方は、➀➂がボトムトップ等からの相対位置指定、通常の部分②④は通常の上からの積み上げ式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・配置の仕方は、➀～③がボトムトップ等からの相対位置指定、通常の部分④は通常の上からの積み上げ式</t>
     <rPh sb="1" eb="3">
       <t>ハイチ</t>
     </rPh>
     <rPh sb="4" eb="6">
       <t>シカタ</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="18" eb="19">
       <t>ナド</t>
     </rPh>
-    <rPh sb="21" eb="23">
+    <rPh sb="22" eb="24">
       <t>ソウタイ</t>
     </rPh>
-    <rPh sb="23" eb="25">
+    <rPh sb="24" eb="26">
       <t>イチ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="26" eb="28">
       <t>シテイ</t>
     </rPh>
-    <rPh sb="28" eb="30">
+    <rPh sb="29" eb="31">
       <t>ツウジョウ</t>
     </rPh>
-    <rPh sb="31" eb="33">
+    <rPh sb="32" eb="34">
       <t>ブブン</t>
     </rPh>
     <rPh sb="36" eb="38">
@@ -642,7 +842,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> .mv_wra（見える部分）・・・height: calc(100vh - 160px);</t>
+    <t>  height: calc(100vh - 16rem);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> .mv_wra（見える部分）・・・ height: calc(100vh - 16rem);</t>
     <rPh sb="9" eb="10">
       <t>ミ</t>
     </rPh>
@@ -652,57 +856,81 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#work_list（セクション部分）・・・margin-left: 160px;</t>
+    <t>#product_area {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下背景固定エリア</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>  width: calc(100% - 30rem);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>  height: 16rem;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#product_area（白い余白）・・・height: 16rem;</t>
+    <rPh sb="14" eb="15">
+      <t>シロ</t>
+    </rPh>
     <rPh sb="16" eb="18">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>  position: relative;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>  z-index: 1;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これがないとz-index: 1;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>が指定できない。</t>
+      <t>ヨハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body::before {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body（画像エリア）・・・・</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボディなので指定なし、全画面</t>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ゼンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※物理空間</t>
     <rPh sb="1" eb="3">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fixが指定できない時は</t>
-    <rPh sb="4" eb="6">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これとおぼえておく</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここにindexがないが</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>親の継承しているだけ</t>
-    <rPh sb="0" eb="1">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイショウ</t>
-    </rPh>
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#work_list {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>  padding-top: calc(100vh - 16rem);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>  padding-bottom: 16rem;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -710,7 +938,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,32 +1013,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="4"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -829,8 +1037,44 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,19 +1083,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,12 +1183,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,10 +1207,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -987,10 +1225,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1011,68 +1246,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1574,9 +1801,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1591,8 +1818,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133725" y="8391525"/>
-          <a:ext cx="6896100" cy="2667000"/>
+          <a:off x="3133725" y="7191375"/>
+          <a:ext cx="6934200" cy="4371975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1627,9 +1854,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1644,8 +1871,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="9696450"/>
-          <a:ext cx="6743700" cy="3619500"/>
+          <a:off x="3429000" y="8496300"/>
+          <a:ext cx="6667500" cy="5724525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1680,9 +1907,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1697,8 +1924,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2562225" y="10734675"/>
-          <a:ext cx="7505700" cy="5438775"/>
+          <a:off x="2562225" y="9534525"/>
+          <a:ext cx="7610475" cy="7353300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1729,13 +1956,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1749,9 +1976,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6267450" y="3962400"/>
-          <a:ext cx="3867150" cy="1285875"/>
+        <a:xfrm flipV="1">
+          <a:off x="6267450" y="2714625"/>
+          <a:ext cx="3914775" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1779,16 +2006,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1803,12 +2030,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13420725" y="4048125"/>
+          <a:off x="13906500" y="4038600"/>
           <a:ext cx="2895600" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1874,7 +2107,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で、一番背景にレイヤー設定。</a:t>
+            <a:t>で、一番後ろ背景にレイヤー設定。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1893,14 +2126,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1916,7 +2149,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13716000" y="8020050"/>
+          <a:off x="14173200" y="9315450"/>
           <a:ext cx="2895600" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1990,15 +2223,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2013,8 +2246,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13744575" y="9915525"/>
-          <a:ext cx="2895600" cy="1495425"/>
+          <a:off x="14001750" y="11887200"/>
+          <a:ext cx="2895600" cy="1685925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2068,15 +2301,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面表示の高さからー</a:t>
+            <a:t>画面トップの高さからー</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
+            <a:t>160</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>６０</a:t>
+            <a:t>　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -2084,12 +2317,32 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>白帯</a:t>
+            <a:t>透明</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>)</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>トップから約</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>840px</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を覆っていると考える</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2160,15 +2413,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2183,8 +2436,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13773150" y="12192000"/>
-          <a:ext cx="2895600" cy="2409825"/>
+          <a:off x="13906500" y="14020800"/>
+          <a:ext cx="2895600" cy="2581275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2211,31 +2464,32 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>白帯（背景の画像と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>fix</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で並べるエリア）</a:t>
+            <a:t>白帯（背景の画像、のぞき窓</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:br>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:br>
+            <a:t>fix</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で並べるエリア　</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>height</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の指定方法が、下のレイヤー（のぞき窓部分）のサイズをふくまないかの理由</a:t>
-          </a:r>
+            <a:t>つの固定エリアがある。）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:br>
@@ -2298,6 +2552,14 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>つまり除き窓とあわせると画面一杯になる。</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
@@ -2316,10 +2578,10 @@
       <xdr:rowOff>163459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>254455</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>375241</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2343,7 +2605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17287874" y="11098159"/>
-          <a:ext cx="5597981" cy="3503665"/>
+          <a:ext cx="6404567" cy="4008491"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2369,15 +2631,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2392,8 +2654,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14363700" y="14935200"/>
-          <a:ext cx="2895600" cy="3000375"/>
+          <a:off x="14182725" y="16935450"/>
+          <a:ext cx="3524250" cy="3000375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2430,51 +2692,25 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>高さの指定方法・・・・指定しない。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>auto</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>margin-left: 160px;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>をする理由・・・</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>height</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>同じ空間にあるのは、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>fixed</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>をしていない、見える部分（赤）だけなので、そこから積み上げられる。マージンをしないと初期表示が、しかし白帯（緑）の部分にかさなってしまうので、その分下に移動している。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:t>を指定しない理由。</a:t>
+          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>物理空間にあるため。</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
@@ -2483,6 +2719,430 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>通常に上からコンテンツがある分だけ積み上げる方式となる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>370665</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>37504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237FA118-0775-A84C-8A67-7DFA23E52106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="15659100"/>
+          <a:ext cx="6476190" cy="4771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB793C3-3371-6EE4-48B6-566514EA624F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2628900" y="17735550"/>
+          <a:ext cx="9525" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9BB93A2-2E82-1631-5293-A69FF5FB34F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="19650075"/>
+          <a:ext cx="1419225" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>このように上に行く認識はやめる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>304187</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>266221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A8AB7F-2DEF-6797-02D8-1FA4B6F5B8B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17345025" y="2838450"/>
+          <a:ext cx="4904762" cy="3828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42890C4F-2CDC-69D5-573F-5B54E77996E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="6553200"/>
+          <a:ext cx="8362950" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD98DF1B-E973-4B27-B7CD-EBFAF3E5D49D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12306300" y="6219825"/>
+          <a:ext cx="4981575" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3547C9B7-A4EF-42A6-A6BA-7009764BF5CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14316075" y="6696074"/>
+          <a:ext cx="2895600" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★二つ覚えておく。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>◯これがあるので、物理階層にいる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コンテンツエリアが画面下から開始される。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>16rem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>分少し上にでるが、、、）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>◯下にスクロールしたら、この幅がのこりそうだが、画面外にでるため、最終的にスクロール後もコンテンツエリアも画面に収まる</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2886,7 +3546,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="520" row="4">
@@ -3026,841 +3686,854 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D671E2-C746-43D4-8EC8-C5DC7A155413}">
-  <dimension ref="B3:AH63"/>
+  <dimension ref="B3:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="L26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" activeCellId="1" sqref="P37 O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="4" width="9" style="3"/>
-    <col min="16" max="16" width="9" style="5"/>
+    <col min="16" max="17" width="9" style="22"/>
+    <col min="18" max="21" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" ht="15" customHeight="1">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:17" ht="15" customHeight="1">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1">
-      <c r="B4" s="11" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:17" ht="15" customHeight="1">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1">
-      <c r="B5" s="11" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="2:17" ht="15" customHeight="1">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1">
-      <c r="B6" s="11" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:17" ht="15" customHeight="1">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="2:20" ht="15" customHeight="1">
-      <c r="B7" s="11" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="2:17" ht="15" customHeight="1">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="2:20" ht="15" customHeight="1">
-      <c r="B8" s="11" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="2:17" ht="15" customHeight="1">
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="2:20" ht="15" customHeight="1">
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="2:20" ht="15" customHeight="1">
-      <c r="B10" s="11" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="2:17" ht="15" customHeight="1">
+      <c r="B9" s="13"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="2:17" ht="15" customHeight="1">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="2:20" ht="15" customHeight="1">
-      <c r="B11" s="11" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="2:17" ht="15" customHeight="1">
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="2:20" ht="25.5">
-      <c r="B12" s="15"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="P12" s="20" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="2:17" ht="25.5">
+      <c r="B12" s="13"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="P12" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="2:20" ht="25.5">
-      <c r="B13" s="11" t="s">
+      <c r="Q12" s="23"/>
+    </row>
+    <row r="13" spans="2:17" ht="25.5">
+      <c r="B13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
       <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P13" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="14"/>
-    </row>
-    <row r="14" spans="2:20" ht="25.5">
-      <c r="B14" s="11" t="s">
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="2:17" ht="25.5">
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
       <c r="P14" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="14"/>
-    </row>
-    <row r="15" spans="2:20" ht="25.5">
-      <c r="B15" s="11" t="s">
+      <c r="Q14" s="23"/>
+    </row>
+    <row r="15" spans="2:17" ht="25.5">
+      <c r="B15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
       <c r="G15" t="s">
         <v>47</v>
       </c>
       <c r="P15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="14"/>
-    </row>
-    <row r="16" spans="2:20" ht="25.5">
-      <c r="B16" s="11" t="s">
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" spans="2:17" ht="25.5">
+      <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="14"/>
-    </row>
-    <row r="17" spans="2:20" ht="25.5">
-      <c r="B17" s="11" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="23"/>
+    </row>
+    <row r="17" spans="2:27" ht="25.5">
+      <c r="B17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="P17" s="23" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="P17" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="29"/>
+    </row>
+    <row r="18" spans="2:27" ht="25.5">
+      <c r="B18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="P18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="14"/>
-    </row>
-    <row r="18" spans="2:20" ht="25.5">
-      <c r="B18" s="15"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="P18" s="29" t="s">
+      <c r="Q18" s="23"/>
+    </row>
+    <row r="19" spans="2:27" ht="25.5">
+      <c r="B19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="P19" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="14"/>
-    </row>
-    <row r="19" spans="2:20" ht="25.5">
-      <c r="B19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="P19" s="29" t="s">
+      <c r="Q19" s="32"/>
+    </row>
+    <row r="20" spans="2:27" ht="25.5">
+      <c r="B20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="P20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="14"/>
-    </row>
-    <row r="20" spans="2:20" ht="25.5">
-      <c r="B20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="P20" s="26" t="s">
+      <c r="Q20" s="23"/>
+    </row>
+    <row r="21" spans="2:27" ht="25.5">
+      <c r="B21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="P21" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="14"/>
-    </row>
-    <row r="21" spans="2:20" ht="25.5">
-      <c r="B21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="P21" s="26" t="s">
+      <c r="Q21" s="23"/>
+    </row>
+    <row r="22" spans="2:27" ht="25.5">
+      <c r="B22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="P22" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="23"/>
+    </row>
+    <row r="23" spans="2:27" ht="25.5">
+      <c r="B23" s="13"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="P23" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q23" s="23"/>
+    </row>
+    <row r="24" spans="2:27" ht="25.5">
+      <c r="B24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="P24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="14"/>
-    </row>
-    <row r="22" spans="2:20" ht="25.5">
-      <c r="B22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="P22" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="14"/>
-    </row>
-    <row r="23" spans="2:20" ht="25.5">
-      <c r="B23" s="15"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="P23" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="14"/>
-    </row>
-    <row r="24" spans="2:20" ht="25.5">
-      <c r="B24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="P24" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="14"/>
-    </row>
-    <row r="25" spans="2:20" ht="25.5">
-      <c r="B25" s="11" t="s">
+      <c r="Q24" s="23"/>
+    </row>
+    <row r="25" spans="2:27" ht="25.5">
+      <c r="B25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
       <c r="G25" t="s">
         <v>48</v>
       </c>
-      <c r="P25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="14"/>
-    </row>
-    <row r="26" spans="2:20" ht="25.5">
-      <c r="B26" s="11" t="s">
+      <c r="P25" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="32"/>
+      <c r="AA25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" ht="25.5">
+      <c r="B26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
       <c r="P26" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="14"/>
-    </row>
-    <row r="27" spans="2:20" ht="25.5">
-      <c r="B27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" s="23"/>
+      <c r="AA26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" ht="25.5">
+      <c r="B27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
       <c r="P27" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="14"/>
-    </row>
-    <row r="28" spans="2:20" ht="25.5">
-      <c r="B28" s="15"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="14"/>
-    </row>
-    <row r="29" spans="2:20" ht="25.5">
-      <c r="B29" s="11" t="s">
+      <c r="Q27" s="23"/>
+      <c r="AA27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" ht="25.5">
+      <c r="B28" s="13"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="23"/>
+    </row>
+    <row r="29" spans="2:27" ht="25.5">
+      <c r="B29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
       <c r="P29" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="14"/>
-    </row>
-    <row r="30" spans="2:20" ht="25.5">
-      <c r="B30" s="15"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="P30" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="14"/>
-    </row>
-    <row r="31" spans="2:20" ht="25.5">
-      <c r="B31" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" s="23"/>
+    </row>
+    <row r="30" spans="2:27" ht="25.5">
+      <c r="B30" s="13"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="P30" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q30" s="23"/>
+    </row>
+    <row r="31" spans="2:27" ht="25.5">
+      <c r="B31" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="P31" s="34" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="P31" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q31" s="23"/>
+      <c r="S31" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="T31" s="25"/>
+    </row>
+    <row r="32" spans="2:27" ht="25.5">
+      <c r="B32" s="13"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="P32" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q32" s="23"/>
+      <c r="S32" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="T32" s="25"/>
+    </row>
+    <row r="33" spans="2:20" ht="25.5">
+      <c r="B33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="P33" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="29"/>
+      <c r="S33" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="T33" s="25"/>
+    </row>
+    <row r="34" spans="2:20" ht="25.5">
+      <c r="B34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="P34" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q34" s="23"/>
+      <c r="S34" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T34" s="25"/>
+    </row>
+    <row r="35" spans="2:20" ht="25.5">
+      <c r="B35" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="P35" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q35" s="23"/>
+    </row>
+    <row r="36" spans="2:20" ht="25.5">
+      <c r="B36" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="P36" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+    </row>
+    <row r="37" spans="2:20" ht="25.5">
+      <c r="B37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="P37" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q37" s="23"/>
+    </row>
+    <row r="38" spans="2:20" ht="25.5">
+      <c r="B38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="P38" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q38" s="23"/>
+    </row>
+    <row r="39" spans="2:20" ht="25.5">
+      <c r="B39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="23"/>
+      <c r="S39" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="25.5">
+      <c r="B40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="P40" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="T31" s="37"/>
-    </row>
-    <row r="32" spans="2:20" ht="25.5">
-      <c r="B32" s="15"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="P32" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="T32" s="37"/>
-    </row>
-    <row r="33" spans="2:20" ht="25.5">
-      <c r="B33" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-      <c r="P33" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="T33" s="37"/>
-    </row>
-    <row r="34" spans="2:20" ht="25.5">
-      <c r="B34" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="39" t="s">
+      <c r="Q40" s="23"/>
+      <c r="S40" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="P41" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="T34" s="37"/>
-    </row>
-    <row r="35" spans="2:20" ht="25.5">
-      <c r="B35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
-      <c r="P35" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="14"/>
-    </row>
-    <row r="36" spans="2:20" ht="25.5">
-      <c r="B36" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-      <c r="P36" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="14"/>
-    </row>
-    <row r="37" spans="2:20" ht="25.5">
-      <c r="B37" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-      <c r="P37" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="14"/>
-    </row>
-    <row r="38" spans="2:20" ht="25.5">
-      <c r="B38" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-      <c r="P38" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="14"/>
-    </row>
-    <row r="39" spans="2:20" ht="25.5">
-      <c r="B39" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="T39" s="14"/>
-    </row>
-    <row r="40" spans="2:20" ht="25.5">
-      <c r="B40" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="P40" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="T40" s="14"/>
-    </row>
-    <row r="41" spans="2:20">
-      <c r="P41" s="28"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="14"/>
+      <c r="Q41" s="29"/>
     </row>
     <row r="42" spans="2:20">
-      <c r="P42" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="14"/>
+      <c r="P42" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q42" s="32"/>
     </row>
     <row r="43" spans="2:20">
-      <c r="P43" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="14"/>
+      <c r="P43" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" s="23"/>
     </row>
     <row r="44" spans="2:20">
       <c r="P44" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="Q44" s="23"/>
     </row>
     <row r="45" spans="2:20">
       <c r="P45" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="14"/>
+        <v>109</v>
+      </c>
+      <c r="Q45" s="23"/>
     </row>
     <row r="46" spans="2:20">
       <c r="P46" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="14"/>
+        <v>99</v>
+      </c>
+      <c r="Q46" s="23"/>
     </row>
     <row r="47" spans="2:20">
       <c r="P47" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q47" s="23"/>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="P48" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q48" s="32"/>
+    </row>
+    <row r="49" spans="5:35">
+      <c r="P49" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q49" s="23"/>
+    </row>
+    <row r="50" spans="5:35">
+      <c r="P50" s="27"/>
+      <c r="Q50" s="23"/>
+    </row>
+    <row r="51" spans="5:35">
+      <c r="E51" t="s">
+        <v>82</v>
+      </c>
+      <c r="P51" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q51" s="23"/>
+    </row>
+    <row r="52" spans="5:35">
+      <c r="E52" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P52" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q52" s="29"/>
+    </row>
+    <row r="53" spans="5:35">
+      <c r="P53" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q53" s="32"/>
+    </row>
+    <row r="54" spans="5:35">
+      <c r="P54" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q54" s="23"/>
+    </row>
+    <row r="55" spans="5:35">
+      <c r="E55" t="s">
+        <v>78</v>
+      </c>
+      <c r="P55" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q55" s="23"/>
+    </row>
+    <row r="56" spans="5:35">
+      <c r="E56" t="s">
         <v>79</v>
       </c>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="14"/>
-    </row>
-    <row r="48" spans="2:20">
-      <c r="P48" s="26" t="s">
+      <c r="P56" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q56" s="23"/>
+      <c r="AA56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+    </row>
+    <row r="57" spans="5:35">
+      <c r="E57" t="s">
         <v>80</v>
       </c>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="14"/>
-    </row>
-    <row r="49" spans="16:34">
-      <c r="P49" s="26" t="s">
+      <c r="P57" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q57" s="32"/>
+      <c r="AA57" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+    </row>
+    <row r="58" spans="5:35">
+      <c r="P58" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="32"/>
+      <c r="AA58" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+    </row>
+    <row r="59" spans="5:35">
+      <c r="P59" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q59" s="23"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+    </row>
+    <row r="60" spans="5:35">
+      <c r="P60" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q60" s="23"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG60" s="5"/>
+      <c r="AI60" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="5:35">
+      <c r="P61" s="27"/>
+      <c r="Q61" s="23"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AI61" s="5"/>
+    </row>
+    <row r="62" spans="5:35">
+      <c r="P62" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q62" s="23"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+    </row>
+    <row r="63" spans="5:35">
+      <c r="P63" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q63" s="30"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+    </row>
+    <row r="64" spans="5:35">
+      <c r="P64" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="4:35">
+      <c r="P65" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB65" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="14"/>
-    </row>
-    <row r="50" spans="16:34">
-      <c r="P50" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="14"/>
-    </row>
-    <row r="51" spans="16:34">
-      <c r="P51" s="26" t="s">
+      <c r="AI65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="4:35">
+      <c r="P66" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="4:35">
+      <c r="P67" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="4:35">
+      <c r="P68" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="4:35">
+      <c r="P69" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="4:35">
+      <c r="P70" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="4:35">
+      <c r="P71" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="14"/>
-    </row>
-    <row r="52" spans="16:34">
-      <c r="P52" s="28"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="14"/>
-    </row>
-    <row r="53" spans="16:34">
-      <c r="P53" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="14"/>
-    </row>
-    <row r="54" spans="16:34">
-      <c r="P54" s="23" t="s">
+    </row>
+    <row r="72" spans="4:35">
+      <c r="P72" s="27"/>
+    </row>
+    <row r="73" spans="4:35">
+      <c r="P73" s="26"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22"/>
+      <c r="T73" s="22"/>
+    </row>
+    <row r="74" spans="4:35">
+      <c r="P74" s="26"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="22"/>
+    </row>
+    <row r="75" spans="4:35">
+      <c r="P75" s="26"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="22"/>
+      <c r="T75" s="22"/>
+    </row>
+    <row r="76" spans="4:35">
+      <c r="P76" s="26"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="22"/>
+    </row>
+    <row r="77" spans="4:35">
+      <c r="P77" s="26"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="22"/>
+      <c r="T77" s="22"/>
+    </row>
+    <row r="78" spans="4:35">
+      <c r="P78" s="26"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="22"/>
+      <c r="T78" s="22"/>
+    </row>
+    <row r="79" spans="4:35">
+      <c r="D79" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="P79" s="26"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="22"/>
+      <c r="T79" s="22"/>
+    </row>
+    <row r="80" spans="4:35">
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="P80" s="27"/>
+      <c r="R80" s="22"/>
+      <c r="S80" s="22"/>
+      <c r="T80" s="22"/>
+    </row>
+    <row r="81" spans="4:20">
+      <c r="D81" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="P81" s="26"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="22"/>
+    </row>
+    <row r="82" spans="4:20">
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="P82" s="26"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="22"/>
+    </row>
+    <row r="83" spans="4:20">
+      <c r="D83" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="14"/>
-    </row>
-    <row r="55" spans="16:34">
-      <c r="P55" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="14"/>
-    </row>
-    <row r="56" spans="16:34">
-      <c r="P56" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="14"/>
-      <c r="AA56" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB56" s="6"/>
-      <c r="AC56" s="6"/>
-      <c r="AD56" s="6"/>
-      <c r="AE56" s="6"/>
-      <c r="AF56" s="6"/>
-      <c r="AG56" s="6"/>
-      <c r="AH56" s="6"/>
-    </row>
-    <row r="57" spans="16:34">
-      <c r="P57" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="14"/>
-      <c r="AA57" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB57" s="6"/>
-      <c r="AC57" s="6"/>
-      <c r="AD57" s="6"/>
-      <c r="AE57" s="6"/>
-      <c r="AF57" s="6"/>
-      <c r="AG57" s="6"/>
-      <c r="AH57" s="6"/>
-    </row>
-    <row r="58" spans="16:34">
-      <c r="P58" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="14"/>
-      <c r="AA58" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="6"/>
-      <c r="AH58" s="6"/>
-    </row>
-    <row r="59" spans="16:34">
-      <c r="P59" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="14"/>
-      <c r="AA59" s="6"/>
-      <c r="AB59" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="6"/>
-      <c r="AG59" s="6"/>
-      <c r="AH59" s="6"/>
-    </row>
-    <row r="60" spans="16:34">
-      <c r="P60" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="14"/>
-      <c r="AA60" s="6"/>
-      <c r="AB60" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC60" s="6"/>
-      <c r="AD60" s="6"/>
-      <c r="AE60" s="6"/>
-      <c r="AG60" s="6"/>
-      <c r="AH60" s="6" t="s">
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="P83" s="26"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="22"/>
+      <c r="T83" s="22"/>
+    </row>
+    <row r="84" spans="4:20">
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="P84" s="26"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+    </row>
+    <row r="85" spans="4:20">
+      <c r="D85" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="61" spans="16:34">
-      <c r="P61" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="14"/>
-      <c r="AA61" s="6"/>
-      <c r="AB61" s="6"/>
-      <c r="AC61" s="6"/>
-      <c r="AD61" s="6"/>
-      <c r="AE61" s="6"/>
-      <c r="AG61" s="6"/>
-      <c r="AH61" s="6" t="s">
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="P85" s="26"/>
+      <c r="R85" s="22"/>
+      <c r="S85" s="22"/>
+      <c r="T85" s="22"/>
+    </row>
+    <row r="86" spans="4:20">
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="P86" s="26"/>
+      <c r="R86" s="22"/>
+      <c r="S86" s="22"/>
+      <c r="T86" s="22"/>
+    </row>
+    <row r="87" spans="4:20">
+      <c r="D87" s="20" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="62" spans="16:34">
-      <c r="P62" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="19"/>
-      <c r="AA62" s="6"/>
-      <c r="AB62" s="6"/>
-      <c r="AC62" s="6"/>
-      <c r="AD62" s="6"/>
-      <c r="AE62" s="6"/>
-      <c r="AF62" s="6"/>
-      <c r="AG62" s="6"/>
-      <c r="AH62" s="6"/>
-    </row>
-    <row r="63" spans="16:34">
-      <c r="AA63" s="6"/>
-      <c r="AB63" s="6"/>
-      <c r="AC63" s="6"/>
-      <c r="AD63" s="6"/>
-      <c r="AE63" s="6"/>
-      <c r="AF63" s="6"/>
-      <c r="AG63" s="6"/>
-      <c r="AH63" s="6"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="P87" s="26"/>
+      <c r="R87" s="22"/>
+      <c r="S87" s="22"/>
+      <c r="T87" s="22"/>
+    </row>
+    <row r="88" spans="4:20">
+      <c r="P88" s="26"/>
+      <c r="R88" s="22"/>
+      <c r="S88" s="22"/>
+      <c r="T88" s="22"/>
+    </row>
+    <row r="89" spans="4:20">
+      <c r="P89" s="26"/>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
+      <c r="T89" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E52" r:id="rId1" xr:uid="{D438FB5B-D8DE-4418-A24A-54832DBD8A95}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
